--- a/data/PBI (real y nominal, estacional y desestacionalizado) Deflactor FMI (1Tr1991 a 2TR2021) listo.xlsx
+++ b/data/PBI (real y nominal, estacional y desestacionalizado) Deflactor FMI (1Tr1991 a 2TR2021) listo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C5B8C7-893E-404B-A4AB-E56999BBDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E44B10-14D9-5841-AA59-7DEFA8E13B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,16 @@
     <sheet name="International Financial Statis" sheetId="1" r:id="rId1"/>
     <sheet name="Tooltip" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4900,26 +4909,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">PBI nominal estacional: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cuentas nacionales, gasto, producto interno bruto, nominal, sin ajuste estacional, moneda nacional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">PBI real desestacionalizado: </t>
     </r>
     <r>
@@ -4950,6 +4939,26 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> cuentas nacionales, gasto, producto interior bruto, real, sin ajuste estacional, moneda nacional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">PBI nominal estacional: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cuentas nacionales, gasto, producto interno bruto, nominal, sin ajuste estacional, moneda nacional USAR para APERTURA COMERCIAL</t>
     </r>
   </si>
 </sst>
@@ -5040,13 +5049,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5369,21 +5378,21 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="27" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="8" customWidth="1"/>
     <col min="4" max="11" width="10" customWidth="1"/>
     <col min="12" max="15" width="12" customWidth="1"/>
     <col min="16" max="125" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1243</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5760,7 +5769,7 @@
       <c r="B2" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="3"/>
@@ -6033,7 +6042,7 @@
       <c r="B3" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="4"/>
@@ -6304,9 +6313,9 @@
         <v>125</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D4" s="3"/>
@@ -6577,9 +6586,9 @@
         <v>126</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="4"/>
@@ -6850,9 +6859,9 @@
         <v>127</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="3"/>
@@ -7123,7 +7132,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="D7" s="4"/>
@@ -7458,7 +7467,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="D8" s="3"/>
@@ -7793,7 +7802,7 @@
         <v>125</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="D9" s="4"/>
@@ -8130,7 +8139,7 @@
       <c r="B10" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="D10" s="3"/>
@@ -8465,7 +8474,7 @@
         <v>127</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>1241</v>
       </c>
       <c r="D11" s="4"/>
@@ -8800,7 +8809,7 @@
         <v>123</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="3"/>
@@ -9135,7 +9144,7 @@
         <v>124</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D13" s="4"/>
@@ -9470,7 +9479,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D14" s="3"/>
@@ -9807,7 +9816,7 @@
       <c r="B15" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="4"/>
@@ -10142,7 +10151,7 @@
         <v>127</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="3"/>
@@ -10477,7 +10486,7 @@
         <v>123</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D17" s="4"/>
@@ -10732,7 +10741,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="3"/>
@@ -10987,7 +10996,7 @@
         <v>125</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D19" s="4"/>
@@ -11244,7 +11253,7 @@
       <c r="B20" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D20" s="3"/>
@@ -11499,7 +11508,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="4"/>
@@ -11754,7 +11763,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="3"/>
@@ -12051,7 +12060,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="4">
@@ -12420,7 +12429,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D24" s="3">
@@ -12791,7 +12800,7 @@
       <c r="B25" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="4"/>
@@ -13088,7 +13097,7 @@
         <v>127</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="3"/>
@@ -13385,7 +13394,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D27" s="4"/>
@@ -13584,7 +13593,7 @@
       <c r="B28" s="6" t="s">
         <v>1237</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D28" s="3"/>
@@ -13781,7 +13790,7 @@
         <v>123</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="D29" s="4"/>
@@ -14140,7 +14149,7 @@
         <v>124</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="D30" s="3"/>
@@ -14499,7 +14508,7 @@
         <v>125</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="D31" s="4"/>
@@ -14860,7 +14869,7 @@
       <c r="B32" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="D32" s="3"/>
@@ -15219,7 +15228,7 @@
         <v>127</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>1242</v>
       </c>
       <c r="D33" s="4"/>
@@ -15578,7 +15587,7 @@
         <v>125</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="3"/>
@@ -15929,7 +15938,7 @@
       <c r="B35" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="4"/>
@@ -16278,7 +16287,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="3"/>
@@ -16449,7 +16458,7 @@
       <c r="B37" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="4"/>
@@ -16633,7 +16642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+      <c r="A1" s="9"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
